--- a/Toolauswahl.xlsx
+++ b/Toolauswahl.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koska.evelyn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewelina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C03FC7-344C-4634-B71B-3088751A1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9F5F0-10BA-42A4-8FC8-E4D36AFD0950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="481" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Secret Scanning" sheetId="1" r:id="rId1"/>
     <sheet name="Dependency Checker SCA" sheetId="2" r:id="rId2"/>
-    <sheet name="SAST&amp;IaC" sheetId="3" r:id="rId3"/>
-    <sheet name="Enterprise Lösungen" sheetId="6" r:id="rId4"/>
-    <sheet name="DAST" sheetId="4" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabelle2" sheetId="8" r:id="rId3"/>
+    <sheet name="SAST&amp;IaC" sheetId="3" r:id="rId4"/>
+    <sheet name="Enterprise Lösungen" sheetId="6" r:id="rId5"/>
+    <sheet name="DAST" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -295,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="397">
   <si>
     <t>Security-Funktion</t>
   </si>
@@ -1305,13 +1306,237 @@
   </si>
   <si>
     <t>Finale Bewertung / Einschätzung</t>
+  </si>
+  <si>
+    <t>nur bei github open</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <t>Spalte4</t>
+  </si>
+  <si>
+    <t>Spalte5</t>
+  </si>
+  <si>
+    <t>Spalte6</t>
+  </si>
+  <si>
+    <t>Spalte7</t>
+  </si>
+  <si>
+    <t>Spalte8</t>
+  </si>
+  <si>
+    <t>Spalte9</t>
+  </si>
+  <si>
+    <t>Spalte10</t>
+  </si>
+  <si>
+    <t>Spalte11</t>
+  </si>
+  <si>
+    <t>Spalte12</t>
+  </si>
+  <si>
+    <t>Spalte13</t>
+  </si>
+  <si>
+    <t>Spalte14</t>
+  </si>
+  <si>
+    <t>Spalte15</t>
+  </si>
+  <si>
+    <t>Vorgefertigter pre-commit hook als repo</t>
+  </si>
+  <si>
+    <t>intergration als pre-commit möglich</t>
+  </si>
+  <si>
+    <t>Zentrales Repository oder Report - Lizenzen</t>
+  </si>
+  <si>
+    <t>Zentrales Repository oder Report - CVEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmiersrachen (java, python, HTML, kotlin, </t>
+  </si>
+  <si>
+    <t>terraform</t>
+  </si>
+  <si>
+    <t>Integration gihub/ Azure Defender</t>
+  </si>
+  <si>
+    <t>Anbindung Third-party bewertung / eigene Risikobewertung von Libraries</t>
+  </si>
+  <si>
+    <t>Unterstützung Revonatebot</t>
+  </si>
+  <si>
+    <t>Whiteliste trusted provider / Quellen</t>
+  </si>
+  <si>
+    <t>We add advisories to the GitHub Advisory Database from the following sources:
+Security advisories reported on GitHub
+The National Vulnerability database
+The npm Security advisories database
+The FriendsOfPHP database
+The Go Vulncheck database
+The Python Packaging Advisory database
+The Ruby Advisory database
+The RustSec Advisory database
+Community contributions. For more information, see https://github.com/github/advisory-database/pulls.
+If you know of another database we should be importing advisories from, tell us about it by opening an issue in https://github.com/github/advisory-database.</t>
+  </si>
+  <si>
+    <t>ja (Whitelisting durch ingrone features)
+Customizing dependency updates: 
+https://docs.github.com/en/code-security/dependabot/dependabot-version-updates/customizing-dependency-updates</t>
+  </si>
+  <si>
+    <t>in Github enthalten, aber bei enterprise kostenpflichtig</t>
+  </si>
+  <si>
+    <t>sprache</t>
+  </si>
+  <si>
+    <t>packagemanager</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>kotlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maven </t>
+  </si>
+  <si>
+    <t>Filetype mit dependencies</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Bundler,  Rubygems</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>Yarn, npm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pom (maven) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composer </t>
+  </si>
+  <si>
+    <t>JavaScript &amp; TypeScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package.json (npm), </t>
+  </si>
+  <si>
+    <t>Gradle (am bekanntesten für kotlin), Maven,  Ant</t>
+  </si>
+  <si>
+    <t>build.gradle (gradle), pom.xml ( Maven), build.xml (Ant)</t>
+  </si>
+  <si>
+    <t>Gemfile.lock (bundler), "gemfile" (rubygems)</t>
+  </si>
+  <si>
+    <t>composer.json (Composer)</t>
+  </si>
+  <si>
+    <t>requirements.txt (pip)</t>
+  </si>
+  <si>
+    <t>Keine echte Programmiersprache und daher kein Paketmanager, mit css und Jacascript über npm, yarn und bower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn.lock (yarn); package.json (npm),  bower.json (bower), </t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>dependabot:</t>
+  </si>
+  <si>
+    <t>yarn</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>bower</t>
+  </si>
+  <si>
+    <t>bundler</t>
+  </si>
+  <si>
+    <t>composer</t>
+  </si>
+  <si>
+    <t>rubygems</t>
+  </si>
+  <si>
+    <t>gradle</t>
+  </si>
+  <si>
+    <t>ja, indem die Package Manager aller oberen sprachen abgedeckt sind.
+Siehe auch: https://docs.github.com/en/code-security/dependabot/dependabot-version-updates/about-dependabot-version-updates</t>
+  </si>
+  <si>
+    <t>ja, als jason file (wie kann man diese am besten lesen?)</t>
+  </si>
+  <si>
+    <t>unterschiedliche Aussagen 
+ja, über (pre-commit-config.yaml) (nicht getestet)
+nein, https://github.com/dependabot/dependabot-core/issues/1524
+-&gt; Vorschlag: beim Hersteller Review erfragen</t>
+  </si>
+  <si>
+    <t>nein oder nicht bekannt</t>
+  </si>
+  <si>
+    <t>nein, bzw. nicht bekannt. Renovatebot scheint mehr/ detailiertere customizing funktionen zu haben wogegen Dependabot bereits in Github integriert ist.</t>
+  </si>
+  <si>
+    <t>ja!
+Siehe auch: https://docs.github.com/en/code-security/dependabot/dependabot-version-updates/about-dependabot-version-updates</t>
+  </si>
+  <si>
+    <t>https://docs.github.com/en/code-security/dependabot/dependabot-alerts/about-dependabot-alerts ff.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,6 +1840,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1738,7 +1969,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1946,13 +2177,62 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="76">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2640,50 +2920,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D9BF34-FBD8-4D87-8CBA-ED768F6E48CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D9BF34-FBD8-4D87-8CBA-ED768F6E48CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A1:N15" xr:uid="{45D9BF34-FBD8-4D87-8CBA-ED768F6E48CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
-    <sortCondition sortBy="fontColor" ref="B1" dxfId="58"/>
+    <sortCondition sortBy="fontColor" ref="B1" dxfId="73"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{52765B5A-5B7D-4013-AC62-4D2F80A8EB41}" name="Security-Funktion" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{517C8A61-3A01-43E0-9EDE-C8304B441617}" name="Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{ED271E9A-76BC-4D5A-ABD9-54C4530B0668}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{02B2CB9A-3B0B-4C35-AE5F-BCDC854DC5EB}" name="URL" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{044A2349-DBB4-48A3-9D3E-ECA9944A5686}" name="Open Source" dataDxfId="53" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" xr3:uid="{3E22B8EC-E88A-45F2-B3F5-DB4876457902}" name="Scan der Versionshistorie (mehrere Branches)" dataDxfId="52" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{75E948C0-8837-4085-9AA8-D1807D36DE31}" name="Vorgefertigter Pre-Commit Hook als Repo" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{CB5A561E-9A93-4B1E-8AE4-5E2BB6A8B917}" name="Output-Möglichkeiten (e.g File, Github Integration, Jira etc...)" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{F61E4043-5220-43BD-8C8A-49A4C95BCF01}" name="Eigene, custom Pattern" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{2EBC6239-1399-4CE4-A73A-E85907274D77}" name="Vorgefertigte Regex Pattern" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{743A5D7D-A969-4704-991D-FBE5B12F59D5}" name="Ignore-Feature bzw. Ausnahmen" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{00072788-AEE2-472A-8D2F-4787315EE537}" name="CLI - Mode" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{40CA8417-8621-4D5E-8F36-98C35AB72004}" name="Kommentare" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{0840FB6B-169C-4423-8332-623F5A8959D8}" name="Lizenzinfo / Kosten" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{52765B5A-5B7D-4013-AC62-4D2F80A8EB41}" name="Security-Funktion" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{517C8A61-3A01-43E0-9EDE-C8304B441617}" name="Name" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{ED271E9A-76BC-4D5A-ABD9-54C4530B0668}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{02B2CB9A-3B0B-4C35-AE5F-BCDC854DC5EB}" name="URL" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{044A2349-DBB4-48A3-9D3E-ECA9944A5686}" name="Open Source" dataDxfId="68" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{3E22B8EC-E88A-45F2-B3F5-DB4876457902}" name="Scan der Versionshistorie (mehrere Branches)" dataDxfId="67" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{75E948C0-8837-4085-9AA8-D1807D36DE31}" name="Vorgefertigter Pre-Commit Hook als Repo" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{CB5A561E-9A93-4B1E-8AE4-5E2BB6A8B917}" name="Output-Möglichkeiten (e.g File, Github Integration, Jira etc...)" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{F61E4043-5220-43BD-8C8A-49A4C95BCF01}" name="Eigene, custom Pattern" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{2EBC6239-1399-4CE4-A73A-E85907274D77}" name="Vorgefertigte Regex Pattern" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{743A5D7D-A969-4704-991D-FBE5B12F59D5}" name="Ignore-Feature bzw. Ausnahmen" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{00072788-AEE2-472A-8D2F-4787315EE537}" name="CLI - Mode" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{40CA8417-8621-4D5E-8F36-98C35AB72004}" name="Kommentare" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{0840FB6B-169C-4423-8332-623F5A8959D8}" name="Lizenzinfo / Kosten" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{32BB8DFA-AF9F-4E25-AB73-149EED3532F9}" name="Table5" displayName="Table5" ref="A1:H16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
-  <autoFilter ref="A1:H16" xr:uid="{32BB8DFA-AF9F-4E25-AB73-149EED3532F9}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6B1381A4-34E4-4618-A8C8-86EC8DB92075}" name="Security-Funktion" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{647D1FDA-2980-4250-AB1D-C6B08578F1F2}" name="Name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{869F56B8-0E18-46FD-844D-CA9D27A11547}" name="Open Source" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{580E51D4-1296-4D85-A76A-6EFBFA798E9F}" name="Github Integration" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{6EFCC582-CA31-4D2F-9210-E5A78CDFF784}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{FBFB97CC-0263-4838-BBC3-CB6F8D21DAA0}" name="Mögliche Einsatzgebiete:" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{8C51C046-1B08-448F-8E60-09FF06AE5BA7}" name="Weitere Infos (Hersteller, etc) " dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{32BB8DFA-AF9F-4E25-AB73-149EED3532F9}" name="Table5" displayName="Table5" ref="A1:W16" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+  <autoFilter ref="A1:W16" xr:uid="{32BB8DFA-AF9F-4E25-AB73-149EED3532F9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GitHub Security Alerts (Dependabot)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{6B1381A4-34E4-4618-A8C8-86EC8DB92075}" name="Security-Funktion" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{647D1FDA-2980-4250-AB1D-C6B08578F1F2}" name="Name" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{869F56B8-0E18-46FD-844D-CA9D27A11547}" name="Open Source" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{580E51D4-1296-4D85-A76A-6EFBFA798E9F}" name="Github Integration" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{6EFCC582-CA31-4D2F-9210-E5A78CDFF784}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{FBFB97CC-0263-4838-BBC3-CB6F8D21DAA0}" name="Mögliche Einsatzgebiete:" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{8C51C046-1B08-448F-8E60-09FF06AE5BA7}" name="Weitere Infos (Hersteller, etc) " dataDxfId="48"/>
     <tableColumn id="8" xr3:uid="{EEEDAD93-684A-4BF0-8651-DCAB34B1BAF3}" name="Kommentar"/>
+    <tableColumn id="9" xr3:uid="{D32A7D55-D584-4628-82CF-61B4DFD0B6E3}" name="Spalte1" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{595B7065-A3BE-49F2-814E-6F6D28A07F1F}" name="Spalte2" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{8BCB007C-C682-4BB3-B9E3-45BEE8D572FE}" name="Spalte3" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{6AC22964-7336-4E0E-A155-98EEA37BDA22}" name="Spalte4" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{DCACF989-2314-4109-8594-8CED8B953790}" name="Spalte5" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{420A02A8-0965-4DBC-BA60-94B44064E4DC}" name="Spalte6" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{52ABCE5C-5D48-473A-B8DF-51204B7C3B3F}" name="Spalte7" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{06D8522B-AFAC-4E2C-8AFD-C3615B102A1C}" name="Spalte8" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{D5476E45-BC2A-4779-80F1-BF390F87C086}" name="Spalte9" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{CDD588B6-A2C3-4C35-B1C7-4FE2E49C9645}" name="Spalte10" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{6A0C5BEE-70C4-4FA7-BB67-C2DE80EBEBC6}" name="Spalte11" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{39BF3E1B-9F98-4F4A-B0A8-767B7BFDBB21}" name="Spalte12" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{C5BA08BE-0C6C-49A5-A33D-AE654A758A03}" name="Spalte13" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{3934546E-4ECE-45C7-BF0F-74278F78E37B}" name="Spalte14" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{8B5953B0-A02F-4E94-887D-4BD73CBC59F0}" name="Spalte15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DCB5B9B-E18A-4FED-8109-DF4B62A6802C}" name="Table3" displayName="Table3" ref="A1:Q34" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DCB5B9B-E18A-4FED-8109-DF4B62A6802C}" name="Table3" displayName="Table3" ref="A1:Q34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A1:Q34" xr:uid="{3DCB5B9B-E18A-4FED-8109-DF4B62A6802C}">
     <filterColumn colId="5">
       <filters>
@@ -2695,11 +2996,11 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{DC847CFE-3B38-4751-9031-61B8A2D5E77D}" name="Security-Funktion" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{8FEAAF01-DD90-468C-8529-88C2505BDAB1}" name="Name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{94C9B54A-DF45-4386-AF6A-6FAFA608D0EA}" name="Open Source" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{5963C1AB-C955-A943-BF8E-645F9F68B0E9}" name="Ticketing-Systeme Integreation" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{BDB8A599-9B69-4C46-BD0E-18C300DA65B7}" name="Github Integration" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{DC847CFE-3B38-4751-9031-61B8A2D5E77D}" name="Security-Funktion" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{8FEAAF01-DD90-468C-8529-88C2505BDAB1}" name="Name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{94C9B54A-DF45-4386-AF6A-6FAFA608D0EA}" name="Open Source" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{5963C1AB-C955-A943-BF8E-645F9F68B0E9}" name="Ticketing-Systeme Integreation" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{BDB8A599-9B69-4C46-BD0E-18C300DA65B7}" name="Github Integration" dataDxfId="39"/>
     <tableColumn id="9" xr3:uid="{220FFA80-AF35-4980-B606-18E270D99808}" name="Programmiersprachen"/>
     <tableColumn id="12" xr3:uid="{2C6265C2-12DC-43A8-AD1D-38795D67C900}" name="Custom Checks"/>
     <tableColumn id="11" xr3:uid="{2CC602A8-B9E2-A14E-8A6A-84E75F302E29}" name="Results Output  + PR-Output"/>
@@ -2708,43 +3009,43 @@
     <tableColumn id="15" xr3:uid="{6E5EC52B-5DE2-6740-8460-0032367FE474}" name="Inkrementell Scan vs. PR-Scan"/>
     <tableColumn id="16" xr3:uid="{51DC95E6-3399-9D4C-AC98-DFEAFA688562}" name="Third Party  Komponente freigegeben?"/>
     <tableColumn id="17" xr3:uid="{366C7B3D-D794-F346-8AFB-B9C98D61F7E9}" name="Erfolgreich getestet?"/>
-    <tableColumn id="5" xr3:uid="{304F96DF-5D75-4E7C-B957-E4AF1F6F4155}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{92E07647-7F77-4572-A774-DDF41924B49A}" name="Mögliche Einsatzgebiete:" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{7D5E0384-78A9-49E8-95A1-F4CC6D1EFA1A}" name="Weitere Infos (Hersteller, etc) " dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{5AC0E9DC-AD1A-4682-8087-4F1F9BFF5D69}" name="Finale Bewertung / Einschätzung" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{304F96DF-5D75-4E7C-B957-E4AF1F6F4155}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{92E07647-7F77-4572-A774-DDF41924B49A}" name="Mögliche Einsatzgebiete:" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{7D5E0384-78A9-49E8-95A1-F4CC6D1EFA1A}" name="Weitere Infos (Hersteller, etc) " dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{5AC0E9DC-AD1A-4682-8087-4F1F9BFF5D69}" name="Finale Bewertung / Einschätzung" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B4240860-0CDA-4F61-8077-DE0ADD8FAF86}" name="Table6" displayName="Table6" ref="A1:G6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B4240860-0CDA-4F61-8077-DE0ADD8FAF86}" name="Table6" displayName="Table6" ref="A1:G6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A1:G6" xr:uid="{B4240860-0CDA-4F61-8077-DE0ADD8FAF86}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2B85A633-9E31-43F0-8535-5DBA88FA60D7}" name="Security-Funktion" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{74665D95-BF61-408C-A4D8-B009AE7D635B}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E04F02DC-56E7-484B-9B3B-976941E00F14}" name="Open Source" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{10FE6901-1F65-4F89-87F1-93CF3DC03121}" name="Github Integration" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{78FC9607-799C-45D5-BF6C-CBB8AAD0FC9A}" name="Pricing estimation" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F34275B0-8C5D-4436-99DF-6B0FA1198AD9}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E29A72AB-70B8-41C4-B37E-EC0A80BB10AB}" name="Kommentar" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{2B85A633-9E31-43F0-8535-5DBA88FA60D7}" name="Security-Funktion" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{74665D95-BF61-408C-A4D8-B009AE7D635B}" name="Name" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{E04F02DC-56E7-484B-9B3B-976941E00F14}" name="Open Source" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{10FE6901-1F65-4F89-87F1-93CF3DC03121}" name="Github Integration" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{78FC9607-799C-45D5-BF6C-CBB8AAD0FC9A}" name="Pricing estimation" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{F34275B0-8C5D-4436-99DF-6B0FA1198AD9}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{E29A72AB-70B8-41C4-B37E-EC0A80BB10AB}" name="Kommentar" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C297CE88-A12F-4D6D-B13B-9EF45FACA245}" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C297CE88-A12F-4D6D-B13B-9EF45FACA245}" name="Table2" displayName="Table2" ref="A1:H4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:H4" xr:uid="{C297CE88-A12F-4D6D-B13B-9EF45FACA245}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2C680292-07C5-42FE-AEE1-9DC522EDCB2B}" name="Security-Funktion" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{DEE47782-F575-4D6F-9BC5-E738127D012A}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AB495497-3BFB-4741-ADA9-FD1087FA1DDC}" name="Open Source" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2FADCDE8-EFB9-437D-AA1A-B10346F71292}" name="Github Integration" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2BDA6305-7340-4E3E-B909-E745E3EB7C6B}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CB31B232-9389-4AA1-876B-C6BC80505CD2}" name="Mögliche Einsatzgebiete:" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2C680292-07C5-42FE-AEE1-9DC522EDCB2B}" name="Security-Funktion" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{DEE47782-F575-4D6F-9BC5-E738127D012A}" name="Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AB495497-3BFB-4741-ADA9-FD1087FA1DDC}" name="Open Source" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{2FADCDE8-EFB9-437D-AA1A-B10346F71292}" name="Github Integration" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{2BDA6305-7340-4E3E-B909-E745E3EB7C6B}" name="Weitere Infos (Name, Hersteller, etc) " dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{CB31B232-9389-4AA1-876B-C6BC80505CD2}" name="Mögliche Einsatzgebiete:" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{36DF2467-944F-41E4-AD3E-99FC61E7E32B}" name="Weitere Infos (Hersteller, etc) "/>
-    <tableColumn id="8" xr3:uid="{849B5999-AB73-495A-96F1-347ABB982EE2}" name="Kommentar" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{849B5999-AB73-495A-96F1-347ABB982EE2}" name="Kommentar" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3054,25 +3355,25 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="22" customWidth="1"/>
     <col min="3" max="3" width="52" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="11" customWidth="1"/>
     <col min="5" max="5" width="7" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" style="11" customWidth="1"/>
-    <col min="9" max="10" width="11.453125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="65.453125" style="25" customWidth="1"/>
-    <col min="14" max="14" width="87.453125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.453125" style="11"/>
+    <col min="6" max="6" width="12.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="11" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="65.44140625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="87.44140625" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="52">
+    <row r="1" spans="1:14" ht="55.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3585,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="43.5">
+    <row r="6" spans="1:14" ht="43.2">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
@@ -3735,25 +4036,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85578094-25E2-45E2-B393-EBF2CDF6C4B8}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
-    <col min="8" max="8" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="92.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
+    <col min="18" max="18" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="43.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3778,8 +4083,53 @@
       <c r="H1" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58">
+      <c r="I1" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="57.6" hidden="1">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -3793,7 +4143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -3807,7 +4157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -3821,7 +4171,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="43.5">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="43.2" hidden="1">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -3835,21 +4185,57 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="72.5">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="144">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="43.5">
+      <c r="I6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="43.2" hidden="1">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3863,7 +4249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="43.5">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="43.2" hidden="1">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -3877,7 +4263,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -3891,7 +4277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -3905,7 +4291,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -3919,7 +4305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -3933,7 +4319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="58">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="57.6" hidden="1">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -3947,7 +4333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -3961,7 +4347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -3975,7 +4361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="29">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="28.8" hidden="1">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -3989,7 +4375,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="11" customFormat="1" ht="42.75" customHeight="1">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>140</v>
       </c>
@@ -4002,8 +4388,41 @@
       <c r="F17" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="11" customFormat="1" ht="42.75" customHeight="1">
+      <c r="H17" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>140</v>
       </c>
@@ -4017,7 +4436,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="11" customFormat="1" ht="42.75" customHeight="1">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>140</v>
       </c>
@@ -4036,7 +4455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -4047,7 +4466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1">
+    <row r="21" spans="1:18" ht="30" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>160</v>
       </c>
@@ -4070,6 +4489,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://owasp.org/www-project-dependency-check/" xr:uid="{259EFCC8-948F-4CB2-98F2-86600B7C02F7}"/>
     <hyperlink ref="H3" r:id="rId2" display="https://github.com/rubysec/bundler-audit" xr:uid="{65E3966E-825C-48F9-B616-C0AB766E39BA}"/>
@@ -4091,11 +4511,12 @@
     <hyperlink ref="H19" r:id="rId18" xr:uid="{2684B053-703E-4182-A1A5-0D0C4EAFDF63}"/>
     <hyperlink ref="H20" r:id="rId19" location="installation" xr:uid="{7E26BD1D-00A8-47CB-B24C-67B9299DEB00}"/>
     <hyperlink ref="Q21" r:id="rId20" xr:uid="{9DEECC9D-C29B-45EE-BB55-38A9CE1E1D83}"/>
+    <hyperlink ref="H17" r:id="rId21" xr:uid="{F3F70948-9B1B-4A6E-A52A-8E81D3785149}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4119,34 +4540,206 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43224977-3CE0-4A45-BC72-5B631B786AA0}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10142424-AB7B-471F-989A-C9E9585BA5E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.44140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="11" max="11" width="27.453125" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" customWidth="1"/>
-    <col min="17" max="17" width="36.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5">
+    <row r="1" spans="1:17" ht="43.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +4904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="77.5">
+    <row r="5" spans="1:17" ht="78">
       <c r="A5" s="31" t="s">
         <v>160</v>
       </c>
@@ -4447,7 +5040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="155">
+    <row r="8" spans="1:17" ht="78">
       <c r="A8" s="31" t="s">
         <v>160</v>
       </c>
@@ -5302,7 +5895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6913A4B-7841-48A5-BA63-8D35827EEC6E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5310,16 +5903,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="41.453125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="18"/>
+    <col min="2" max="2" width="12.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.21875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -5383,7 +5976,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="11" t="s">
         <v>265</v>
       </c>
@@ -5403,7 +5996,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72.5">
+    <row r="5" spans="1:7" ht="72">
       <c r="A5" s="11" t="s">
         <v>273</v>
       </c>
@@ -5426,7 +6019,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="11" t="s">
         <v>278</v>
       </c>
@@ -5453,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F4C911-315E-4643-9CA6-B099D59F8D32}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -5461,15 +6054,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.75" customHeight="1">
@@ -5551,7 +6144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F17D82-7EFD-45F9-ABD1-9F2B949F7241}">
   <dimension ref="A3:B6"/>
   <sheetViews>
@@ -5559,9 +6152,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -5611,17 +6204,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="270a77b0-131c-45c6-bf33-fbafaf592215">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="abe236bb-6a6d-409f-ba36-2b29523e35b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100ACFB98880DB48643964FA88059A2F4D2" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="07f7c08a2e1209acd4bcda01421b98bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="270a77b0-131c-45c6-bf33-fbafaf592215" xmlns:ns3="abe236bb-6a6d-409f-ba36-2b29523e35b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90671ad2988988acd75579369a487c16" ns2:_="" ns3:_="">
     <xsd:import namespace="270a77b0-131c-45c6-bf33-fbafaf592215"/>
@@ -5810,6 +6392,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="270a77b0-131c-45c6-bf33-fbafaf592215">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="abe236bb-6a6d-409f-ba36-2b29523e35b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66733B8A-CDFC-4CAF-88DC-8EEADAFD78E4}">
   <ds:schemaRefs>
@@ -5819,23 +6412,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB08CA9-E184-4865-90F1-6335197729F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="270a77b0-131c-45c6-bf33-fbafaf592215"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="abe236bb-6a6d-409f-ba36-2b29523e35b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF459DDF-CCDF-46D1-9364-BFE618AA9C15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5852,4 +6428,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB08CA9-E184-4865-90F1-6335197729F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="270a77b0-131c-45c6-bf33-fbafaf592215"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="abe236bb-6a6d-409f-ba36-2b29523e35b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>